--- a/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
+++ b/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicopatsch/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzzammilpeerboccus/Documents/ProjetOpenClassrooms/Projet_4_La_chouette_agence/Projet_4_La_chouette_agence/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5D44FE-04AF-234E-B962-DF94382B29E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="620" windowWidth="27860" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>Catégorie</t>
   </si>
@@ -50,13 +51,259 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
+    <t>SEO et accessiblité</t>
+  </si>
+  <si>
+    <t>Le titre</t>
+  </si>
+  <si>
+    <t>Il faut mettre un titre représentant le site</t>
+  </si>
+  <si>
+    <t>Changer le titre de la page</t>
+  </si>
+  <si>
+    <t>Phrase en image</t>
+  </si>
+  <si>
+    <t>Il faut écrire directement les paragraphes au lieu de mettre des images</t>
+  </si>
+  <si>
+    <t>Mettre des paragraphes à la place des images</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Mots clés dans le HTML</t>
+  </si>
+  <si>
+    <t>Des paragraphes sont des images ce qui empêche les mal voyannt de traduire la page</t>
+  </si>
+  <si>
+    <t>Le titre est un simple "." ce qui ne donne pas de nom à la page et emêche sa traduction</t>
+  </si>
+  <si>
+    <t>Supprimer les mots clés et faire des paragraphes</t>
+  </si>
+  <si>
+    <t>Il faut mettre des paragraphes construites au lieu de cacher des mots clés</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;/li&gt; inutile dans le HTML</t>
+  </si>
+  <si>
+    <t>Il faut mettre les balises adéquate à la page HTML</t>
+  </si>
+  <si>
+    <t>Supprimer les &lt;li&gt;&lt;/li&gt; et mettre les balise correspondante</t>
+  </si>
+  <si>
+    <t>Les mots clés ne doivent pas être dans le HTML ce qui est sanctionné par Google</t>
+  </si>
+  <si>
+    <t>Il y a des &lt;li&gt;&lt;/li&gt; dans HTML ce qui ne favorise pas le SEO et l'organisation du code</t>
+  </si>
+  <si>
+    <t>accessiblité</t>
+  </si>
+  <si>
+    <t>Paragraphe illisible</t>
+  </si>
+  <si>
+    <t>Il y a plusieurs paragraphes illisibles sur le site qui ne respecte pas les exigence WCAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il faut mettre en place des paragraphes lisibles et cohérents </t>
+  </si>
+  <si>
+    <t>Améliorer les paragraphes illisibles pour les rendre visible</t>
+  </si>
+  <si>
+    <t>Lien inutile</t>
+  </si>
+  <si>
+    <t>Il faut mettre une seule fois l'option de contact et enlever le lien vers accueil</t>
+  </si>
+  <si>
+    <t>Supprimer les options contacts en trop, en garder 1 seul et supprimer lien accueil</t>
+  </si>
+  <si>
+    <t>Lien des sites dans le footer inaccessibles</t>
+  </si>
+  <si>
+    <t>Les liens des sites web dans le footer sont inutilisable lors du clic</t>
+  </si>
+  <si>
+    <t>Il faut mettre l'URL de chaque liens afin d'y avoir accès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer les liens inacessible </t>
+  </si>
+  <si>
+    <t>Problème de contraste entre les couleurs</t>
+  </si>
+  <si>
+    <t>Il faut respecter les normes WCAG en termes de couleurs donc un contraste avec un ratio de 4.5:1</t>
+  </si>
+  <si>
+    <t>Mettre les couleurs adéquates respectant un ration contraste de 4.5:1</t>
+  </si>
+  <si>
+    <t>Il y a du CSS directement dans le HTML</t>
+  </si>
+  <si>
+    <t>Il faut toujours dissocier le HTML et le CSS afin d'avoir un code propre et favoriser un bon référencement naturel</t>
+  </si>
+  <si>
+    <t>Il y a des propriétées CSS directement dans le HTML ce qui n'est pas favorable à un bon SEO</t>
+  </si>
+  <si>
+    <t>Enlever les propriétées CSS du HTML et le mettre dans le CSS</t>
+  </si>
+  <si>
+    <t>Mauvaise utilisation des balises titres</t>
+  </si>
+  <si>
+    <t>Il y a un problème dans la suite logique des titres et l'utilisation des titres (certains sont utilisés comme des paragraphes</t>
+  </si>
+  <si>
+    <t>Il faut respecter l'oraganisation des balises &lt;h&gt;&lt;/h&gt; et leur utilisation dans le HTML</t>
+  </si>
+  <si>
+    <t>Mettre les titres au bon endroit et respecter leurs utilisations</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de langue renseigné</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de langue renseigné dans le HTML du site ce qui restreint l'accessibilité et plus précisément la traduction qui sera faite</t>
+  </si>
+  <si>
+    <t>Il faut impérativement renseigner une langue afin de permettre une traduction adéquate pour les mals voyants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter la langue correspondante au site </t>
+  </si>
+  <si>
+    <t>Mauvaise utilisation des balises &lt;br&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>Il y a des balises &lt;br&gt;&lt;/br&gt; qui ont été utilisé pour des sauts de lignes ce qui n'est pas favorable à une bone oraganisation et au SEO</t>
+  </si>
+  <si>
+    <t>Il faut ne faut pas mettre de balise &lt;br&gt;&lt;/br&gt; pour des sauts de lignes mais plutôt des marges</t>
+  </si>
+  <si>
+    <t>Dissocier les 2 blocs et mettre une marge entre les 2</t>
+  </si>
+  <si>
+    <t>Utilisation excessive de sélecteurs (class=)</t>
+  </si>
+  <si>
+    <t>Il y a beaucoup trop de sélecteurs pour un seul bloc afin de définir seulement quelques valeurs</t>
+  </si>
+  <si>
+    <t>Il faut mettre le minimum de sélecteurs pour définir les propriétés et les valeurs d'un bloc</t>
+  </si>
+  <si>
+    <t>Réduire le nombre de sélecteur en mettant les valeurs dans un seul sélecteur</t>
+  </si>
+  <si>
+    <t>Des textes trop long contenant aucun mot clé</t>
+  </si>
+  <si>
+    <t>Les textes présentés sur la page sont beaucoups trop long et ne reprends aucun mot clé permettant un meilleur référencement naturel</t>
+  </si>
+  <si>
+    <t>Faire un texte adéquate avec des mots clés et définissant le site</t>
+  </si>
+  <si>
+    <t>Il faut mettre du texte composé des mots clés définissant le site web et unniquement l'essentiel</t>
+  </si>
+  <si>
+    <t>Mauvais lien réseaux sociaux</t>
+  </si>
+  <si>
+    <t>Les liens des réseaux sociaux renvoient directement à la page d'accueil</t>
+  </si>
+  <si>
+    <t>Il faut ajouter les bons liens des réseaux sociaux du site web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre les bons liens des reseaux sociaux </t>
+  </si>
+  <si>
+    <t>Attribut ALT trop long</t>
+  </si>
+  <si>
+    <t>L'attribut ALT des images est beaucoup trop long et ne représente pas l'image ce qui ne respecte pas les normes WCAG</t>
+  </si>
+  <si>
+    <t>Il faut que l'attribut ALT représente l'image afin que les mals voyants puissent faire lire la description de l'image</t>
+  </si>
+  <si>
+    <t>Mettre la bonne description de l'image</t>
+  </si>
+  <si>
+    <t>Sur certaines parties du site il y a des problèmes de contrastes couleurs ce qui restreint l'accessibilité et la visibilité</t>
+  </si>
+  <si>
+    <t>Le site non responsive</t>
+  </si>
+  <si>
+    <t>Un site doit impérativement être responsive afin de s'adapter à toute sorte d'écran et favoriser donc un meilleur SEO</t>
+  </si>
+  <si>
+    <t>Il faut mettre en place un site qui s'adapte à tout type d'écran</t>
+  </si>
+  <si>
+    <t>Réaliser le responsive du site</t>
+  </si>
+  <si>
+    <t>Le même CSS pour les 2 pages</t>
+  </si>
+  <si>
+    <t>Les 2 pages HTML possède le même ce qui n'est pas bon pour le référencement naturel et l'organisation du code</t>
+  </si>
+  <si>
+    <t>Dissocier le CSS de chaque pages HTML</t>
+  </si>
+  <si>
+    <t>Plusieurs sélecteurs dans le CSS se répetent inutilement ce qui engendre une mauvaise structure et donc réduit le SEO</t>
+  </si>
+  <si>
+    <t>Il faut faire en sorte de minifier au maximum son code afin d'avoir une bonne structure et augmenter le SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minifier au mieux le code </t>
+  </si>
+  <si>
+    <t>Répétition de plusieurs sélecteur dans le CSS</t>
+  </si>
+  <si>
+    <t>Il y 3 fois la possibilité de contact, un lien vers l'accueil dans l'accueil et même problème page 2 ce qui n'est pas favorable aux normes SEO</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de balise sémantique</t>
+  </si>
+  <si>
+    <t>Le site n'est pas structuré avec des balises sémantiques ce qui empêche les personnes utilisant des technologie d'assistance de s'y retrouver et la force du référencement naturel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il faut avoir un code organisé pour un bon référencement naturel donc préférable d'avoir un CSS pour chaque pages </t>
+  </si>
+  <si>
+    <t>Il faut toujours utiliser des balises sémantiques afin de donner une structure à son code et différencier les zones</t>
+  </si>
+  <si>
+    <t>Ajouter au code les balises sémantiques pour une meilleure organisation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -122,14 +369,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,6 +389,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -341,17 +594,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="138" customWidth="1"/>
+    <col min="4" max="4" width="91.42578125" customWidth="1"/>
+    <col min="5" max="5" width="57.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
@@ -396,68 +652,357 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="4"/>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
+++ b/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzzammilpeerboccus/Documents/ProjetOpenClassrooms/Projet_4_La_chouette_agence/Projet_4_La_chouette_agence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5D44FE-04AF-234E-B962-DF94382B29E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E788C4-7366-AA40-A9E1-F5218921FDC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -198,18 +198,6 @@
     <t>Dissocier les 2 blocs et mettre une marge entre les 2</t>
   </si>
   <si>
-    <t>Utilisation excessive de sélecteurs (class=)</t>
-  </si>
-  <si>
-    <t>Il y a beaucoup trop de sélecteurs pour un seul bloc afin de définir seulement quelques valeurs</t>
-  </si>
-  <si>
-    <t>Il faut mettre le minimum de sélecteurs pour définir les propriétés et les valeurs d'un bloc</t>
-  </si>
-  <si>
-    <t>Réduire le nombre de sélecteur en mettant les valeurs dans un seul sélecteur</t>
-  </si>
-  <si>
     <t>Des textes trop long contenant aucun mot clé</t>
   </si>
   <si>
@@ -234,9 +222,6 @@
     <t xml:space="preserve">Mettre les bons liens des reseaux sociaux </t>
   </si>
   <si>
-    <t>Attribut ALT trop long</t>
-  </si>
-  <si>
     <t>L'attribut ALT des images est beaucoup trop long et ne représente pas l'image ce qui ne respecte pas les normes WCAG</t>
   </si>
   <si>
@@ -249,9 +234,6 @@
     <t>Sur certaines parties du site il y a des problèmes de contrastes couleurs ce qui restreint l'accessibilité et la visibilité</t>
   </si>
   <si>
-    <t>Le site non responsive</t>
-  </si>
-  <si>
     <t>Un site doit impérativement être responsive afin de s'adapter à toute sorte d'écran et favoriser donc un meilleur SEO</t>
   </si>
   <si>
@@ -261,27 +243,6 @@
     <t>Réaliser le responsive du site</t>
   </si>
   <si>
-    <t>Le même CSS pour les 2 pages</t>
-  </si>
-  <si>
-    <t>Les 2 pages HTML possède le même ce qui n'est pas bon pour le référencement naturel et l'organisation du code</t>
-  </si>
-  <si>
-    <t>Dissocier le CSS de chaque pages HTML</t>
-  </si>
-  <si>
-    <t>Plusieurs sélecteurs dans le CSS se répetent inutilement ce qui engendre une mauvaise structure et donc réduit le SEO</t>
-  </si>
-  <si>
-    <t>Il faut faire en sorte de minifier au maximum son code afin d'avoir une bonne structure et augmenter le SEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minifier au mieux le code </t>
-  </si>
-  <si>
-    <t>Répétition de plusieurs sélecteur dans le CSS</t>
-  </si>
-  <si>
     <t>Il y 3 fois la possibilité de contact, un lien vers l'accueil dans l'accueil et même problème page 2 ce qui n'est pas favorable aux normes SEO</t>
   </si>
   <si>
@@ -291,20 +252,59 @@
     <t>Le site n'est pas structuré avec des balises sémantiques ce qui empêche les personnes utilisant des technologie d'assistance de s'y retrouver et la force du référencement naturel</t>
   </si>
   <si>
-    <t xml:space="preserve">Il faut avoir un code organisé pour un bon référencement naturel donc préférable d'avoir un CSS pour chaque pages </t>
-  </si>
-  <si>
     <t>Il faut toujours utiliser des balises sémantiques afin de donner une structure à son code et différencier les zones</t>
   </si>
   <si>
     <t>Ajouter au code les balises sémantiques pour une meilleure organisation</t>
+  </si>
+  <si>
+    <t>Attribut ALT non conforme</t>
+  </si>
+  <si>
+    <t>Le site mal responsive</t>
+  </si>
+  <si>
+    <t>Format image trop volumineux</t>
+  </si>
+  <si>
+    <t>Les images présents sur le site sont beaucoup trop lourde et ralentit le site</t>
+  </si>
+  <si>
+    <t>Il faut réduire le volume des images afin d'augmenter les performances et la vitesse du site</t>
+  </si>
+  <si>
+    <t>Il faut conseiller d'avoir des images en faible résolution afin de permettre au site d'avoir fluide</t>
+  </si>
+  <si>
+    <t>Il faut toujours avoir une meta description afin d'avoir un référencement optimal et décrire logiquement le site</t>
+  </si>
+  <si>
+    <t>Ajouter une meta description qui résume de manière concis le site</t>
+  </si>
+  <si>
+    <t>Il y a des icones qui sont pré-enregistrés dans un fichier CSS mais qui ne sont pas utilisé dans le site</t>
+  </si>
+  <si>
+    <t>Il faut mettre uniquement dans son CSS ou HTML ce qui sera uniquement ajouté au site ou modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effacer ces icons qui ralentisent le site </t>
+  </si>
+  <si>
+    <t>Et-icon non utile pour le site web</t>
+  </si>
+  <si>
+    <t>Meta description non renseigné</t>
+  </si>
+  <si>
+    <t>Il n'y a aucun meta description qui résume l'utilité du site et donc n'optimise pas le référencement naturel et ne permet pas de décrire le site aux personnes utilisant une assistance vocale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,13 +326,27 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -369,17 +383,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,19 +625,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B6095" sqref="B6095"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="138" customWidth="1"/>
-    <col min="4" max="4" width="91.42578125" customWidth="1"/>
-    <col min="5" max="5" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="3" width="67.85546875" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
@@ -652,347 +682,347 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
+      <c r="D19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="20" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
+      <c r="B20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>38</v>
+    <row r="21" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1968,9 +1998,6 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
+++ b/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzzammilpeerboccus/Documents/ProjetOpenClassrooms/Projet_4_La_chouette_agence/Projet_4_La_chouette_agence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E788C4-7366-AA40-A9E1-F5218921FDC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0740D446-E7D6-9447-AE17-65AAE48A611A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>Mots clés dans le HTML</t>
   </si>
   <si>
-    <t>Des paragraphes sont des images ce qui empêche les mal voyannt de traduire la page</t>
-  </si>
-  <si>
     <t>Le titre est un simple "." ce qui ne donne pas de nom à la page et emêche sa traduction</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>Il n'y a aucun meta description qui résume l'utilité du site et donc n'optimise pas le référencement naturel et ne permet pas de décrire le site aux personnes utilisant une assistance vocale</t>
+  </si>
+  <si>
+    <t>Des paragraphes sont des images ce qui empêche les mal voyant de traduire la page</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +361,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -383,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,6 +414,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -627,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B6095" sqref="B6095"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -682,20 +710,20 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -707,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>11</v>
@@ -716,21 +744,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>17</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -738,84 +766,84 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="C7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -823,16 +851,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -840,33 +868,33 @@
         <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -874,16 +902,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -891,33 +919,33 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="15" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -925,16 +953,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -942,16 +970,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -959,33 +987,33 @@
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="19" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:5" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -993,16 +1021,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1010,16 +1038,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="D21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
+++ b/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzzammilpeerboccus/Documents/ProjetOpenClassrooms/Projet_4_La_chouette_agence/Projet_4_La_chouette_agence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0740D446-E7D6-9447-AE17-65AAE48A611A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C5F91B-8B91-F34A-9C46-FC35A3DA37F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -727,20 +727,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -761,20 +761,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1033,20 +1033,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:5" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="14" t="s">
         <v>81</v>
       </c>
     </row>

--- a/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
+++ b/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzzammilpeerboccus/Documents/ProjetOpenClassrooms/Projet_4_La_chouette_agence/Projet_4_La_chouette_agence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C5F91B-8B91-F34A-9C46-FC35A3DA37F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399FDDC0-9D6D-5D43-87AD-14A1C7273A79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t xml:space="preserve">Il faut mettre en place des paragraphes lisibles et cohérents </t>
   </si>
   <si>
-    <t>Améliorer les paragraphes illisibles pour les rendre visible</t>
-  </si>
-  <si>
     <t>Lien inutile</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>Des paragraphes sont des images ce qui empêche les mal voyant de traduire la page</t>
+  </si>
+  <si>
+    <t>Améliorer les paragraphes illisibles pour les rendre visible en augmentant la taille</t>
   </si>
 </sst>
 </file>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -735,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>11</v>
@@ -792,7 +792,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -800,16 +800,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -817,16 +817,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -834,50 +834,50 @@
         <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="C10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="B11" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -885,16 +885,16 @@
         <v>23</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -902,16 +902,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -919,16 +919,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -936,16 +936,16 @@
         <v>23</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -953,16 +953,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -970,16 +970,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -987,16 +987,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1004,16 +1004,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E19" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1021,16 +1021,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1038,16 +1038,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>87</v>
-      </c>
       <c r="D21" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
+++ b/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzzammilpeerboccus/Documents/ProjetOpenClassrooms/Projet_4_La_chouette_agence/Projet_4_La_chouette_agence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399FDDC0-9D6D-5D43-87AD-14A1C7273A79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9EA296-6FD9-E048-9C98-09F6335137C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,9 +201,6 @@
     <t>Faire un texte adéquate avec des mots clés et définissant le site</t>
   </si>
   <si>
-    <t>Il faut mettre du texte composé des mots clés définissant le site web et unniquement l'essentiel</t>
-  </si>
-  <si>
     <t>Mauvais lien réseaux sociaux</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Il faut ajouter les bons liens des réseaux sociaux du site web</t>
   </si>
   <si>
-    <t xml:space="preserve">Mettre les bons liens des reseaux sociaux </t>
-  </si>
-  <si>
     <t>L'attribut ALT des images est beaucoup trop long et ne représente pas l'image ce qui ne respecte pas les normes WCAG</t>
   </si>
   <si>
@@ -298,6 +292,12 @@
   </si>
   <si>
     <t>Améliorer les paragraphes illisibles pour les rendre visible en augmentant la taille</t>
+  </si>
+  <si>
+    <t>Mettre les bons liens des reseaux sociaux ou supprimer</t>
+  </si>
+  <si>
+    <t>Il faut mettre du texte composé des mots clés définissant le site web et uniquement l'essentiel</t>
   </si>
 </sst>
 </file>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -735,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>11</v>
@@ -778,21 +778,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>88</v>
+      <c r="E6" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -803,7 +803,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>28</v>
@@ -829,20 +829,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -897,20 +897,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -925,7 +925,7 @@
         <v>54</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>55</v>
@@ -936,16 +936,16 @@
         <v>23</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -953,16 +953,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -970,33 +970,33 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:5" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="E18" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1004,16 +1004,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1021,16 +1021,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1038,16 +1038,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
+++ b/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzzammilpeerboccus/Documents/ProjetOpenClassrooms/Projet_4_La_chouette_agence/Projet_4_La_chouette_agence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9EA296-6FD9-E048-9C98-09F6335137C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCFDDE0-9385-874A-8C50-DC52508A703B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="28780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,33 +389,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -710,343 +689,343 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:5" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:5" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="15" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:5" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="7" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
+++ b/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzzammilpeerboccus/Documents/ProjetOpenClassrooms/Projet_4_La_chouette_agence/Projet_4_La_chouette_agence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCFDDE0-9385-874A-8C50-DC52508A703B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48E6888-7A95-3F46-9913-3989ADE6D83B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="500" windowWidth="28780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="109">
   <si>
     <t>Catégorie</t>
   </si>
@@ -298,13 +298,73 @@
   </si>
   <si>
     <t>Il faut mettre du texte composé des mots clés définissant le site web et uniquement l'essentiel</t>
+  </si>
+  <si>
+    <t>https://www.yumens.fr/expertise/seo/le-seo/referencement-google/optimiser-texte/titre-seo/</t>
+  </si>
+  <si>
+    <t>https://fr.semrush.com/blog/referencer-les-images-pour-le-seo/</t>
+  </si>
+  <si>
+    <t>https://www.enjin.fr/referencement-tout-savoir-sur-le-texte-cache/#:~:text=Le%20%E2%80%9Ccontent%20cloaking%E2%80%9D%20ou%20la,technique%20appartient%20aux%20Black%20Hat.</t>
+  </si>
+  <si>
+    <t>https://tutowebdesign.com/balise-li-html.php</t>
+  </si>
+  <si>
+    <t>https://www.it-swarm-fr.com/fr/accessibility/des-couleurs-doivent-elles-etre-explicitement-definies-pour-quune-page-web-soit-conforme-wcag/956491138/</t>
+  </si>
+  <si>
+    <t>https://www.semjuice.com/blog/liens-toxiques-detection-suppression-ameliorer-seo-m36</t>
+  </si>
+  <si>
+    <t>https://www.pierre-giraud.com/html-css-apprendre-coder-cours/lien-interne-externe-ancre/</t>
+  </si>
+  <si>
+    <t>https://stephaniewalter.design/fr/blog/accessibilite-et-couleurs-outils-et-ressources-pour-concevoir-des-produits-accessible/</t>
+  </si>
+  <si>
+    <t>https://www.marevueweb.com/css-html/erreurs-courantes/</t>
+  </si>
+  <si>
+    <t>https://optimiz.me/h1-2/</t>
+  </si>
+  <si>
+    <t>https://www.accede-web.com/notices/html-et-css/langues/renseigner-la-langue-principale-de-la-page-avec-lattribut-lang-sur-la-balise-html/</t>
+  </si>
+  <si>
+    <t>https://tutowebdesign.com/balise-br-html.php</t>
+  </si>
+  <si>
+    <t>https://marketing-bienveillant.com/placer-les-mots-cles/</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/WCAG20-TECHS/H37.html</t>
+  </si>
+  <si>
+    <t>https://audreytips.com/7-commandements-liens-internes/</t>
+  </si>
+  <si>
+    <t>https://mylittlebigweb.com/impact-responsive-design-seo/</t>
+  </si>
+  <si>
+    <t>https://ronan-hello.fr/series/html/balises-semantiques-html</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/icons/</t>
+  </si>
+  <si>
+    <t>https://www.oscar-referencement.com/astuces-optimiser-images-referencement-naturel/</t>
+  </si>
+  <si>
+    <t>https://smartkeyword.io/seo-on-page-balise-meta-description/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,6 +409,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -389,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,6 +483,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,7 +705,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -645,7 +715,7 @@
     <col min="3" max="3" width="67.85546875" customWidth="1"/>
     <col min="4" max="4" width="67.42578125" customWidth="1"/>
     <col min="5" max="5" width="45.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="78.42578125" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -705,6 +775,9 @@
       <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="3" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -722,6 +795,9 @@
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -739,6 +815,9 @@
       <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -756,6 +835,9 @@
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="F5" s="12" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="6" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -773,6 +855,9 @@
       <c r="E6" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="F6" s="11" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -790,6 +875,9 @@
       <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="F7" s="12" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -807,6 +895,9 @@
       <c r="E8" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="F8" s="12" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -824,6 +915,9 @@
       <c r="E9" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="F9" s="11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -841,6 +935,9 @@
       <c r="E10" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="F10" s="12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -858,6 +955,9 @@
       <c r="E11" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="F11" s="12" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -875,6 +975,9 @@
       <c r="E12" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="F12" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -892,6 +995,9 @@
       <c r="E13" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="F13" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -909,6 +1015,9 @@
       <c r="E14" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="F14" s="12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -926,6 +1035,9 @@
       <c r="E15" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="F15" s="12" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="16" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -943,8 +1055,11 @@
       <c r="E16" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="F16" s="12" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -960,8 +1075,11 @@
       <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="F17" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1095,11 @@
       <c r="E18" s="7" t="s">
         <v>70</v>
       </c>
+      <c r="F18" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -994,8 +1115,11 @@
       <c r="E19" s="10" t="s">
         <v>81</v>
       </c>
+      <c r="F19" s="12" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1011,8 +1135,11 @@
       <c r="E20" s="6" t="s">
         <v>75</v>
       </c>
+      <c r="F20" s="12" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1028,18 +1155,21 @@
       <c r="E21" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="F21" s="12" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
+++ b/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzzammilpeerboccus/Documents/ProjetOpenClassrooms/Projet_4_La_chouette_agence/Projet_4_La_chouette_agence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48E6888-7A95-3F46-9913-3989ADE6D83B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7295E889-5811-3848-9713-065823D5D2B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="28780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Mots clés dans le HTML</t>
   </si>
   <si>
-    <t>Le titre est un simple "." ce qui ne donne pas de nom à la page et emêche sa traduction</t>
-  </si>
-  <si>
     <t>Supprimer les mots clés et faire des paragraphes</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>Mauvaise utilisation des balises titres</t>
   </si>
   <si>
-    <t>Il y a un problème dans la suite logique des titres et l'utilisation des titres (certains sont utilisés comme des paragraphes</t>
-  </si>
-  <si>
     <t>Il faut respecter l'oraganisation des balises &lt;h&gt;&lt;/h&gt; et leur utilisation dans le HTML</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>Mauvaise utilisation des balises &lt;br&gt;&lt;/br&gt;</t>
   </si>
   <si>
-    <t>Il y a des balises &lt;br&gt;&lt;/br&gt; qui ont été utilisé pour des sauts de lignes ce qui n'est pas favorable à une bone oraganisation et au SEO</t>
-  </si>
-  <si>
     <t>Il faut ne faut pas mettre de balise &lt;br&gt;&lt;/br&gt; pour des sauts de lignes mais plutôt des marges</t>
   </si>
   <si>
@@ -195,9 +186,6 @@
     <t>Des textes trop long contenant aucun mot clé</t>
   </si>
   <si>
-    <t>Les textes présentés sur la page sont beaucoups trop long et ne reprends aucun mot clé permettant un meilleur référencement naturel</t>
-  </si>
-  <si>
     <t>Faire un texte adéquate avec des mots clés et définissant le site</t>
   </si>
   <si>
@@ -231,9 +219,6 @@
     <t>Réaliser le responsive du site</t>
   </si>
   <si>
-    <t>Il y 3 fois la possibilité de contact, un lien vers l'accueil dans l'accueil et même problème page 2 ce qui n'est pas favorable aux normes SEO</t>
-  </si>
-  <si>
     <t>Il n'y a pas de balise sémantique</t>
   </si>
   <si>
@@ -358,6 +343,21 @@
   </si>
   <si>
     <t>https://smartkeyword.io/seo-on-page-balise-meta-description/</t>
+  </si>
+  <si>
+    <t>Il y a des balises &lt;br&gt;&lt;/br&gt; qui ont été utilisé pour des sauts de lignes ce qui n'est pas favorable à une bonne organisation et au SEO</t>
+  </si>
+  <si>
+    <t>Le titre est un simple "." ce qui ne donne pas de nom à la page ce qui resteint le SEO du site</t>
+  </si>
+  <si>
+    <t>Il y 4 fois la possibilité de contact, un lien vers l'accueil dans l'accueil et même problème page 2 ce qui n'est pas favorable aux normes SEO</t>
+  </si>
+  <si>
+    <t>Il y a un problème dans la suite logique des titres et l'utilisation des titres (certains sont utilisés comme des paragraphes)</t>
+  </si>
+  <si>
+    <t>Les textes présentés sur la page sont beaucoup trop long et ne reprends aucun mot clé permettant un meilleur référencement naturel</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -767,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -796,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -807,16 +807,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -824,39 +824,39 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -864,19 +864,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F7" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -884,39 +884,39 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="F8" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -924,19 +924,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="F10" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -944,39 +944,39 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="F11" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -984,19 +984,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="F13" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1004,39 +1004,39 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1044,19 +1044,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1064,19 +1064,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1084,19 +1084,19 @@
         <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1104,19 +1104,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1124,19 +1124,19 @@
         <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1144,19 +1144,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
+++ b/Projet_4_La_chouette_agence/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzzammilpeerboccus/Documents/ProjetOpenClassrooms/Projet_4_La_chouette_agence/Projet_4_La_chouette_agence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7295E889-5811-3848-9713-065823D5D2B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8734A0BF-4DF3-E747-86A2-8DF9EC5488FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28780" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <t>Sur certaines parties du site il y a des problèmes de contrastes couleurs ce qui restreint l'accessibilité et la visibilité</t>
   </si>
   <si>
-    <t>Un site doit impérativement être responsive afin de s'adapter à toute sorte d'écran et favoriser donc un meilleur SEO</t>
-  </si>
-  <si>
     <t>Il faut mettre en place un site qui s'adapte à tout type d'écran</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>Il n'y a pas de balise sémantique</t>
   </si>
   <si>
-    <t>Le site n'est pas structuré avec des balises sémantiques ce qui empêche les personnes utilisant des technologie d'assistance de s'y retrouver et la force du référencement naturel</t>
-  </si>
-  <si>
     <t>Il faut toujours utiliser des balises sémantiques afin de donner une structure à son code et différencier les zones</t>
   </si>
   <si>
@@ -358,6 +352,12 @@
   </si>
   <si>
     <t>Les textes présentés sur la page sont beaucoup trop long et ne reprends aucun mot clé permettant un meilleur référencement naturel</t>
+  </si>
+  <si>
+    <t>Un site doit impérativement être responsive afin de s'adapter à toute sorte d'écran et favoriser donc un meilleur SEO ce qui est actuellement pas le cas</t>
+  </si>
+  <si>
+    <t>Le site n'est pas structuré avec des balises sémantiques ce qui empêche les personnes utilisant des technologies d'assistance de s'y retrouver et la force du référencement naturel</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -767,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -796,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -836,7 +836,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -853,10 +853,10 @@
         <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -867,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>27</v>
@@ -876,7 +876,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -896,7 +896,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -936,7 +936,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -947,7 +947,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>41</v>
@@ -956,7 +956,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -976,7 +976,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -987,7 +987,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>48</v>
@@ -996,7 +996,7 @@
         <v>49</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1007,16 +1007,16 @@
         <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1024,7 +1024,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>55</v>
@@ -1036,7 +1036,7 @@
         <v>57</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1053,10 +1053,10 @@
         <v>54</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1064,19 +1064,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="F17" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1084,19 +1084,19 @@
         <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="F18" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1104,19 +1104,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="F19" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1124,19 +1124,19 @@
         <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="F20" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="8" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1144,19 +1144,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
